--- a/backtest/rotation_strategy/bt_report/rs_m_ind/single_run/summary.xlsx
+++ b/backtest/rotation_strategy/bt_report/rs_m_ind/single_run/summary.xlsx
@@ -681,7 +681,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>000300.XSHG</t>
+          <t>399006.XSHE</t>
         </is>
       </c>
       <c r="C6" s="13" t="n"/>
@@ -697,7 +697,7 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>创业板指</t>
         </is>
       </c>
       <c r="C7" s="13" t="n"/>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>38579528.65155388</v>
+        <v>65232304.15183234</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>21333.67515387759</v>
+        <v>7204.025632340461</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>2.857952865155388</v>
+        <v>5.523230415183234</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.1854438054263408</v>
+        <v>0.2665498931255896</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>3.857952865155388</v>
+        <v>6.523230415183234</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>162.0513143399721</v>
+        <v>165.7679254557943</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.5481392086856399</v>
+        <v>0.4366797401543651</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.2285731602143336</v>
+        <v>0.2047435585721592</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>0.6708425932582609</v>
+        <v>1.046884260284464</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1640438981764918</v>
+        <v>0.1434721070376488</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>0.9347291380655164</v>
+        <v>1.493968502237007</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.2818583276736624</v>
+        <v>0.1970932454910517</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.02332518218379089</v>
+        <v>0.02048805263607197</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.6151099613832683</v>
+        <v>0.9709213253939194</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.06226644722736974</v>
+        <v>0.08925191055361092</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.1136048753507327</v>
+        <v>0.2039494074551963</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.5863385182152498</v>
+        <v>0.3772297942936328</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>0.7165904409746497</v>
+        <v>1.386041474747931</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.3945698761941923</v>
+        <v>0.4603053836720009</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.3517191896350218</v>
+        <v>0.5748403845813395</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2073483139456888</v>
+        <v>0.2572703258799465</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.1052511338955692</v>
+        <v>0.1973817515756225</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.699709831021476</v>
+        <v>0.3941352220391411</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>0.665170710927399</v>
+        <v>1.038440904976462</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>0.9779396008403356</v>
+        <v>1.649224835663028</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>0.7238377194035762</v>
+        <v>1.379289534356319</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.02441576891316719</v>
+        <v>0.03370506048003095</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.258432950016273</v>
+        <v>0.1589221296098658</v>
       </c>
     </row>
   </sheetData>
@@ -1157,19 +1157,19 @@
         <v>2014</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.4370800000000004</v>
+        <v>0.7997159999999995</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>-0.09769625492731907</v>
+        <v>0.6380000016997516</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>2.47297251623788</v>
+        <v>3.406701101570488</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>-0.6707094766162011</v>
+        <v>5.56085302710146</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>0.4473684210526316</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="3">
@@ -1177,19 +1177,19 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>1.066711665321345</v>
+        <v>1.221112664442608</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.8016807798112899</v>
+        <v>0.03385671868348825</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>2.421759919139421</v>
+        <v>2.866465249378674</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>3.862605315214197</v>
+        <v>4.022419700399571</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.6346153846153846</v>
+        <v>0.4230769230769231</v>
       </c>
     </row>
     <row r="4">
@@ -1197,19 +1197,19 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.1623050945613343</v>
+        <v>-0.06442807924806619</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>-0.07743285183979241</v>
+        <v>0.1904642263621268</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.8765778742463164</v>
+        <v>-0.3447463899714248</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>-0.7180677498751669</v>
+        <v>0.04767817772730699</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0.42</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="5">
@@ -1217,19 +1217,19 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.1456728533480394</v>
+        <v>0.1283050642155027</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>-0.06030464392572293</v>
+        <v>0.2423779431282243</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>0.9717475132673398</v>
+        <v>1.062214830709273</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>-0.3845282265055818</v>
+        <v>1.616202894049816</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.5882352941176471</v>
       </c>
     </row>
     <row r="6">
@@ -1237,19 +1237,19 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.0586898025196376</v>
+        <v>-0.02861149265771647</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.227226641069235</v>
+        <v>0.2874539125579296</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-0.2459066243756292</v>
+        <v>-0.1322054085186468</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.2712798181514907</v>
+        <v>0.3744022883410356</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>0.5490196078431373</v>
+        <v>0.6274509803921569</v>
       </c>
     </row>
     <row r="7">
@@ -1257,19 +1257,19 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.4160835147142122</v>
+        <v>0.3680544492389101</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>0.02941614553135188</v>
+        <v>-0.07507291184383189</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.824954882723625</v>
+        <v>1.67189828877139</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>1.077982394981543</v>
+        <v>0.8540855917392055</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0.5</v>
+        <v>0.4807692307692308</v>
       </c>
     </row>
     <row r="8">
@@ -1277,19 +1277,19 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.05012183111454624</v>
+        <v>0.1276467574451608</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.1749990413471155</v>
+        <v>-0.3426259060325133</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.3212365887346608</v>
+        <v>0.6329694440454153</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>-1.307721275237919</v>
+        <v>-1.646913887724985</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.3461538461538461</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1297,19 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>0.05155639365898525</v>
+        <v>-0.02612852635079736</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>0.09871296239837207</v>
+        <v>-0.1697424890004487</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>0.3389402142871896</v>
+        <v>-0.0532750808278007</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>0.4715174624816152</v>
+        <v>-0.4821559114655282</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>0.5</v>
+        <v>0.4230769230769231</v>
       </c>
     </row>
     <row r="10">
@@ -1317,16 +1317,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>-0.08049157357265309</v>
+        <v>0.05928627440409306</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.0007647962701765172</v>
+        <v>0.2107663999127715</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>-1.08260096632501</v>
+        <v>1.262911906366302</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>-0.7325361168927845</v>
+        <v>1.726777609539547</v>
       </c>
       <c r="F10" s="13" t="n">
         <v>0.52</v>
@@ -1433,31 +1433,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.04111400000000009</v>
+        <v>-0.0210530000000001</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.02609799287923686</v>
+        <v>0.01218145619732169</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.05001065469058008</v>
+        <v>0.02885034595790326</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.08824309275070275</v>
+        <v>0.1274411231839636</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>0.002606148298367028</v>
+        <v>-0.01047173258626422</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.04641392015687851</v>
+        <v>0.04124169996060978</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.0305789036470665</v>
+        <v>0.007965378931813039</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.08662516771194095</v>
+        <v>0.1796858965068615</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.146262808993155</v>
+        <v>0.2780521683801191</v>
       </c>
     </row>
     <row r="3">
@@ -1465,40 +1465,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.02362290199571349</v>
+        <v>0.01247363472903507</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.1543906710137399</v>
+        <v>0.1168686699612826</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.1727082733412604</v>
+        <v>0.1621241804533298</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.07321795860650404</v>
+        <v>0.1484473339165464</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.1649119047440795</v>
+        <v>0.1951406918916048</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.03337206644851354</v>
+        <v>-0.03599555046101943</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.0152077556686796</v>
+        <v>0.04709824559945863</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.002500818598559329</v>
+        <v>0.00221715821048929</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.1554180565138754</v>
+        <v>0.1146190813469747</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.08191868697166083</v>
+        <v>0.07526085342295574</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.02997414923550001</v>
+        <v>0.01562525010334403</v>
       </c>
     </row>
     <row r="4">
@@ -1506,40 +1506,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.108650080975613</v>
+        <v>-0.06602262686585092</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>-0.02982243281547925</v>
+        <v>-0.01648767696409925</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.06225076760268933</v>
+        <v>0.03993274324811225</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.02440300996602296</v>
+        <v>-0.04748243302131028</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.04575623325313372</v>
+        <v>0</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.01724278446854077</v>
+        <v>0.01580082563169882</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.008961573682372714</v>
+        <v>0.01148974500133493</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.008634168721507685</v>
+        <v>-0.001575805222019055</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.03103873185870354</v>
+        <v>-0.02299069909049212</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.0003222453712056206</v>
+        <v>0.005436893630001549</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.02294804680306828</v>
+        <v>0.03570691930011383</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.04505879002400426</v>
+        <v>-0.01483894251032647</v>
       </c>
     </row>
     <row r="5">
@@ -1547,40 +1547,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.006930926667789272</v>
+        <v>0</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.01354290616044884</v>
+        <v>0.02397703210494373</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>2.638677258648414e-05</v>
+        <v>0.03442878559310225</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.01327180257858895</v>
+        <v>0.003558135824609066</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.01622399159242538</v>
+        <v>-0.003496720739520676</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.06261806023801886</v>
+        <v>0.04775897643793892</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.002980147466910887</v>
+        <v>0.04449860350101664</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.01848553073816495</v>
+        <v>0.02298337031151854</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.01627367829148796</v>
+        <v>0.01384709459712363</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.08717399044540319</v>
+        <v>-0.007919946536135147</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.0172176496891151</v>
+        <v>-0.05392205982537546</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.008494760213730856</v>
+        <v>-0.0001599396068042713</v>
       </c>
     </row>
     <row r="6">
@@ -1588,40 +1588,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.02517216821439683</v>
+        <v>0.02567856049338468</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.07209048372078053</v>
+        <v>-0.01611752063239957</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.06457640989252855</v>
+        <v>0.007757148097371047</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.04139887757223026</v>
+        <v>-0.05468112445232187</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.1288631627792005</v>
+        <v>0.07039141951045735</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.04685314573379096</v>
+        <v>-0.03197113535587293</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.02455697588536809</v>
+        <v>-0.03579220782928394</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.008259741815924371</v>
+        <v>0</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>-0.02473527186647972</v>
+        <v>0</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>-0.01477406713336105</v>
+        <v>0</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>0.01459705522288224</v>
+        <v>0.03194877773459881</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>-0.04442971601635892</v>
+        <v>-0.01995834460075785</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.001363710903724114</v>
+        <v>-0.01262156505454926</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.1305926826328132</v>
+        <v>0.2342746915029195</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.05086355982529733</v>
+        <v>0.08514683329066064</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.03477658299261455</v>
+        <v>0.001828362325293931</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.01791769347945815</v>
+        <v>-0.01272048862291508</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.09228876559046717</v>
+        <v>0.01893955996507724</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.02278365166660201</v>
+        <v>-0.03327174407668665</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.05343757266795746</v>
+        <v>0.009816318230256416</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.01047326662887693</v>
+        <v>0.01310744811088216</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.02380872710079385</v>
+        <v>-0.003567056045144845</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.02827637261868077</v>
+        <v>-0.03849654387937707</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.03898942831985175</v>
+        <v>0.08326898836574714</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.0197180066334659</v>
+        <v>0.04585391637624059</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.03088626204399525</v>
+        <v>-0.09049315071296093</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.0994845495361375</v>
+        <v>-0.04592984267103939</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.03355877384338024</v>
+        <v>0.01214169244451857</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>-0.0005648550291272869</v>
+        <v>0.01468262204018322</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.1005128369572441</v>
+        <v>0.08105219452741075</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.05215708862498292</v>
+        <v>0.05964383855496469</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>0.00141508745824015</v>
+        <v>0.0130253644097198</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.09136107788748471</v>
+        <v>-0.02370933920132523</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.04570101391745174</v>
+        <v>-0.03836960668594547</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.04169508272811284</v>
+        <v>0.06395465545065537</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.09068073904593255</v>
+        <v>0.04377500036727278</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.06496003344393564</v>
+        <v>0.01691158667777315</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.03955319715244054</v>
+        <v>-0.02193476349063295</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.001351023621563696</v>
+        <v>-0.03361339861299806</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.07621911623305166</v>
+        <v>0.02326482495029025</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.04676853307809692</v>
+        <v>0.02757392577394868</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.02715031644238686</v>
+        <v>-0.02508037417924158</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.07036932586135425</v>
+        <v>0.01477645602598421</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.0479121427383522</v>
+        <v>0.01867136437456218</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.08225190766141166</v>
+        <v>-0.05106399033873732</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.006864917330228981</v>
+        <v>0.01199849141439713</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.04102075924883031</v>
+        <v>0.007010167799081035</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.002526585418013427</v>
+        <v>-0.01127694001676827</v>
       </c>
     </row>
     <row r="10">
@@ -1752,25 +1752,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.0495720706280689</v>
+        <v>-0.01590675881358306</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.01421603182400943</v>
+        <v>0</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>-0.1043250246639156</v>
+        <v>0</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>-0.04867215228626232</v>
+        <v>-0.01472117746978197</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.01130601901437833</v>
+        <v>0.02577387787038909</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.1151608379809876</v>
+        <v>0.07181776963827669</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>-0.007329078021848789</v>
+        <v>-0.006322720925453718</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1889,31 +1889,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.009382627936744714</v>
+        <v>0.04331862535215958</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.02555590193935109</v>
+        <v>-0.01904821203977047</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.04645602936269277</v>
+        <v>-0.03568555111597804</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.002566652490041177</v>
+        <v>0.1754238856323269</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>0.007609919347704386</v>
+        <v>-0.06756288245696351</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.002621301255495645</v>
+        <v>-0.03778666752368864</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.006862253189176881</v>
+        <v>0.02603199700108649</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>-0.03064923218262627</v>
+        <v>0.1329484658718267</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>-0.09165232295187198</v>
+        <v>0.353861084084913</v>
       </c>
     </row>
     <row r="3">
@@ -1921,40 +1921,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.04866701786886751</v>
+        <v>-0.119697230861069</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.1087671752459081</v>
+        <v>-0.02786776831296855</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.03298809852016915</v>
+        <v>-0.04333063683317839</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.08499557568567995</v>
+        <v>-0.06464160022365095</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.1397433367096768</v>
+        <v>-0.03831780163345011</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.03185779361061236</v>
+        <v>0.1639160426090922</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.1336278546596594</v>
+        <v>0.08807385286485769</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.1266630841116492</v>
+        <v>0.2844043959266498</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.04469714496548449</v>
+        <v>-0.06648280493155367</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.04965438534696442</v>
+        <v>-0.06828156938795082</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.07594170403828193</v>
+        <v>-0.004364497549251833</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.07495170512773086</v>
+        <v>-0.003350953276877622</v>
       </c>
     </row>
     <row r="4">
@@ -1962,40 +1962,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.1105603060240141</v>
+        <v>0.2279120643254697</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>-0.01069361858614626</v>
+        <v>0.03016255058107919</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.05170132796836746</v>
+        <v>-0.1361678203205171</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.004893430670949384</v>
+        <v>-0.005754951443306844</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.05006284406319972</v>
+        <v>-0.01869687499886785</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.02288707678874946</v>
+        <v>-0.01724004538510615</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>-0.006575392613205167</v>
+        <v>0.05960565009182406</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.0298716570793881</v>
+        <v>-0.03534020510262736</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.009184851200765953</v>
+        <v>-0.004768255215060968</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.02552556501659775</v>
+        <v>-0.0004638817317081934</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>-0.03538608995608006</v>
+        <v>0.02343829118782592</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.02025095828108547</v>
+        <v>0.09186025775379791</v>
       </c>
     </row>
     <row r="5">
@@ -2003,40 +2003,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>-0.01659816186349539</v>
+        <v>0.03685602696773627</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>-0.005559767318564446</v>
+        <v>0.001780502297182407</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>-0.0009188929748015218</v>
+        <v>0.04440421813896167</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.01809799280974911</v>
+        <v>0.03291264770270108</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.0002824387702540232</v>
+        <v>0.04374766704315736</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.01244236021096934</v>
+        <v>0.01495354713583485</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>-0.01554366252609651</v>
+        <v>0.0896106884172303</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.04016014421490999</v>
+        <v>-0.04023549747324873</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.01978257053573151</v>
+        <v>0.004641872221317289</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.0410745495772904</v>
+        <v>-0.01038390147813006</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.01718890644212345</v>
+        <v>-0.001192979795360039</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.01570662903591202</v>
+        <v>0.007843628425546978</v>
       </c>
     </row>
     <row r="6">
@@ -2044,40 +2044,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>-0.03346776903286597</v>
+        <v>0.03337028530356556</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.01725920833446448</v>
+        <v>-0.03357531681287451</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.09853129568889107</v>
+        <v>-0.07366241641119875</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.006606897087077401</v>
+        <v>-0.008229231970812267</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.1155139681209227</v>
+        <v>0.1062011431977454</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.03062183329785051</v>
+        <v>0.04374574667379538</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.02926688467438021</v>
+        <v>-0.01192787752418445</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.04097334633075667</v>
+        <v>0.07966801273828805</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>-0.0569235564441839</v>
+        <v>0.01408128749632898</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.06476757617757389</v>
+        <v>0.09307593245600398</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>0.008098767746494762</v>
+        <v>-0.01229304516832275</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.006739876280936086</v>
+        <v>0.04056258214699016</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.06223420750018027</v>
+        <v>0.003473366838328884</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.01385701313043941</v>
+        <v>-0.0125946048132245</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.003466567123764253</v>
+        <v>-0.01712148568656902</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.0220024979387603</v>
+        <v>0.04287358005475927</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.05161845301731005</v>
+        <v>0.06814360553766696</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.03665024537146189</v>
+        <v>-0.003048806374764568</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.02577064998868217</v>
+        <v>-0.0711511739170354</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.06190234683972995</v>
+        <v>-0.0187164973070677</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.00735401485609688</v>
+        <v>0.001897262220920126</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.004418374265934499</v>
+        <v>-0.03151107797803032</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.01354514644240046</v>
+        <v>-0.03534204382497919</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>-0.02903709047266001</v>
+        <v>0.002398414631496149</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.04330412533753281</v>
+        <v>-0.02525071723039141</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.01278312494586142</v>
+        <v>-0.1564550389428873</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.0402859063554255</v>
+        <v>0.04862673789032623</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.02723041572346052</v>
+        <v>-0.08855274366974486</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.01136184029510723</v>
+        <v>0.005257492268664565</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.02213297085170551</v>
+        <v>-0.07642310245395123</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-0.0650891326398978</v>
+        <v>-0.07895873698732303</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.02376111710056006</v>
+        <v>0.03441858966485811</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.04665297621694275</v>
+        <v>0.02881684291597031</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.06847841139302802</v>
+        <v>-0.07135269543957956</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>-0.01386455238899365</v>
+        <v>0.07077507111206582</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.03838480131927979</v>
+        <v>-0.07562955106350611</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.08916284543485276</v>
+        <v>-0.03643980364262533</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.03534293525403454</v>
+        <v>0.04569695296789056</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.05165833673995324</v>
+        <v>0.01015943642907002</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.06012239156076471</v>
+        <v>-0.08933149402001483</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.005150059130786699</v>
+        <v>-0.04234819102096288</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.007052868786969757</v>
+        <v>-0.07606379481658154</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.1603697835113589</v>
+        <v>0.01683581898318676</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.04727590509343615</v>
+        <v>0.08508696947804606</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.09402581939708332</v>
+        <v>-0.06355697910932745</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.01570130766565658</v>
+        <v>-0.02170138777292008</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.05750740103751051</v>
+        <v>-0.03595295875511317</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>-0.01938351622404311</v>
+        <v>0.03887154819650096</v>
       </c>
     </row>
     <row r="10">
@@ -2208,25 +2208,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.02691705303238057</v>
+        <v>0.1183407341990415</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.008922257968568381</v>
+        <v>0.004280811429914211</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>-0.0342396493048176</v>
+        <v>0.07009750317718355</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>-0.004397509605413075</v>
+        <v>0.1142593440073392</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.009701728914542795</v>
+        <v>-0.01521045990534586</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.01772751390919924</v>
+        <v>-0.08546799579557651</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>-0.003250403339504659</v>
+        <v>0.003873710008839959</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>

--- a/backtest/rotation_strategy/bt_report/rs_m_ind/single_run/summary.xlsx
+++ b/backtest/rotation_strategy/bt_report/rs_m_ind/single_run/summary.xlsx
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>65232304.15183234</v>
+        <v>63564950.93363357</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>7204.025632340461</v>
+        <v>10997.75033356249</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>5.523230415183234</v>
+        <v>5.356495093363357</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.2665498931255896</v>
+        <v>0.2624245519840278</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>6.523230415183234</v>
+        <v>6.356495093363357</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>165.7679254557943</v>
+        <v>167.0430993607534</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.4366797401543651</v>
+        <v>0.3557203381895001</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.2047435585721592</v>
+        <v>0.2059520100377879</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.046884260284464</v>
+        <v>1.026174143265931</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1434721070376488</v>
+        <v>0.1452822983715811</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.493968502237007</v>
+        <v>1.454703221406114</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.1970932454910517</v>
+        <v>0.2071964947204108</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.02048805263607197</v>
+        <v>0.02064248868431065</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.9709213253939194</v>
+        <v>0.9205658625447453</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.08925191055361092</v>
+        <v>0.08570560487962542</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.2039494074551963</v>
+        <v>0.1998305648433864</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.3772297942936328</v>
+        <v>0.3770982474649243</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.386041474747931</v>
+        <v>1.349195744342565</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.4603053836720009</v>
+        <v>0.4468840123109739</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.5748403845813395</v>
+        <v>0.5943903112354318</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2572703258799465</v>
+        <v>0.2582834280763433</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.1973817515756225</v>
+        <v>0.1931844159939574</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.3941352220391411</v>
+        <v>0.3980238605089011</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>1.038440904976462</v>
+        <v>1.010740493303792</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.649224835663028</v>
+        <v>1.600003386632722</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.379289534356319</v>
+        <v>1.330680099545216</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03370506048003095</v>
+        <v>0.03383307050750729</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.1589221296098658</v>
+        <v>0.1623090729151981</v>
       </c>
     </row>
   </sheetData>
@@ -1157,16 +1157,16 @@
         <v>2014</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.7997159999999995</v>
+        <v>0.825995999999998</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.6380000016997516</v>
+        <v>0.662557571680203</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.406701101570488</v>
+        <v>3.453839100514076</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>5.56085302710146</v>
+        <v>5.715718500928324</v>
       </c>
       <c r="F2" s="13" t="n">
         <v>0.5789473684210527</v>
@@ -1177,16 +1177,16 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>1.221112664442608</v>
+        <v>1.126240692750696</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.03385671868348825</v>
+        <v>-0.01248729789080339</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>2.866465249378674</v>
+        <v>2.718459351254032</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>4.022419700399571</v>
+        <v>3.571784410520055</v>
       </c>
       <c r="F3" s="13" t="n">
         <v>0.4230769230769231</v>
@@ -1197,16 +1197,16 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.06442807924806619</v>
+        <v>-0.06013047754968621</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.1904642263621268</v>
+        <v>0.1962911729237135</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.3447463899714248</v>
+        <v>-0.3149366029889784</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>0.04767817772730699</v>
+        <v>0.08594507673515149</v>
       </c>
       <c r="F4" s="13" t="n">
         <v>0.58</v>
@@ -1217,19 +1217,19 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.1283050642155027</v>
+        <v>0.2135772324303575</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.2423779431282243</v>
+        <v>0.3353270035154455</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.062214830709273</v>
+        <v>1.666653685275158</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>1.616202894049816</v>
+        <v>2.36151763781232</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.6078431372549019</v>
       </c>
     </row>
     <row r="6">
@@ -1237,19 +1237,19 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.02861149265771647</v>
+        <v>-0.0616700734621315</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.2874539125579296</v>
+        <v>0.2450787543386432</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-0.1322054085186468</v>
+        <v>-0.3659620169312839</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.3744022883410356</v>
+        <v>0.1390411352413521</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>0.6274509803921569</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="7">
@@ -1257,19 +1257,19 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.3680544492389101</v>
+        <v>0.3409083908180969</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.07507291184383189</v>
+        <v>-0.09334475859490793</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.67189828877139</v>
+        <v>1.564855717095569</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.8540855917392055</v>
+        <v>0.6446822525591677</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0.4807692307692308</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="8">
@@ -1277,16 +1277,16 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.1276467574451608</v>
+        <v>0.1018368658919911</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.3426259060325133</v>
+        <v>-0.3571855008947672</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.6329694440454153</v>
+        <v>0.5327571898937581</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>-1.646913887724985</v>
+        <v>-1.854612139138846</v>
       </c>
       <c r="F8" s="13" t="n">
         <v>0.3461538461538461</v>
@@ -1297,19 +1297,19 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>-0.02612852635079736</v>
+        <v>-0.01897739239213489</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.1697424890004487</v>
+        <v>-0.1636035858756367</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>-0.0532750808278007</v>
+        <v>-0.01131529288645066</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>-0.4821559114655282</v>
+        <v>-0.430463422074246</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="10">
@@ -1317,16 +1317,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.05928627440409306</v>
+        <v>0.05540581892433043</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.2107663999127715</v>
+        <v>0.2065587767872973</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>1.262911906366302</v>
+        <v>1.138042761631603</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>1.726777609539547</v>
+        <v>1.571654632092629</v>
       </c>
       <c r="F10" s="13" t="n">
         <v>0.52</v>
@@ -1442,22 +1442,22 @@
         <v>0.02885034595790326</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.1274411231839636</v>
+        <v>0.1108274094397124</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.01047173258626422</v>
+        <v>-0.002422196967088008</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.04124169996060978</v>
+        <v>0.05013720456758386</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.007965378931813039</v>
+        <v>0.001834212788913492</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1796858965068615</v>
+        <v>0.1714263838265537</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.2780521683801191</v>
+        <v>0.3115347072635184</v>
       </c>
     </row>
     <row r="3">
@@ -1465,40 +1465,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.01247363472903507</v>
+        <v>0.01274318235089278</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.1168686699612826</v>
+        <v>0.1168794088462177</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.1621241804533298</v>
+        <v>0.1621434236174388</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.1484473339165464</v>
+        <v>0.1377470630730011</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.1951406918916048</v>
+        <v>0.1784742351695321</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.03599555046101943</v>
+        <v>-0.02590098662879237</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.04709824559945863</v>
+        <v>0.01518831888611549</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.00221715821048929</v>
+        <v>0.002217062204053821</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.1146190813469747</v>
+        <v>0.1146058214610646</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.07526085342295574</v>
+        <v>0.07526697528520199</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.01562525010334403</v>
+        <v>0.01562211025620841</v>
       </c>
     </row>
     <row r="4">
@@ -1506,40 +1506,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.06602262686585092</v>
+        <v>-0.07776624742724225</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>-0.01648767696409925</v>
+        <v>-0.01648727761627367</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.03993274324811225</v>
+        <v>0.03994127577526352</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.04748243302131028</v>
+        <v>-0.0474785647971171</v>
       </c>
       <c r="F4" s="15" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.01580082563169882</v>
+        <v>0.01580157118432801</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.01148974500133493</v>
+        <v>0.02964516169998355</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.001575805222019055</v>
+        <v>0.001299989502509202</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.02299069909049212</v>
+        <v>-0.02198025092288058</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.005436893630001549</v>
+        <v>0.007269373778140409</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.03570691930011383</v>
+        <v>0.03783119768552012</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.01483894251032647</v>
+        <v>-0.02302748095813212</v>
       </c>
     </row>
     <row r="5">
@@ -1550,37 +1550,37 @@
         <v>0</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.02397703210494373</v>
+        <v>0.02381852811005558</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.03442878559310225</v>
+        <v>0.03389485715203455</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.003558135824609066</v>
+        <v>0.003621917389734053</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.003496720739520676</v>
+        <v>-0.00281871802114475</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.04775897643793892</v>
+        <v>0.04775564729213011</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.04449860350101664</v>
+        <v>0.04449289120588373</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.02298337031151854</v>
+        <v>0.02297993628608452</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.01384709459712363</v>
+        <v>0.01547638936161966</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>-0.007919946536135147</v>
+        <v>0.04412599273755946</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.05392205982537546</v>
+        <v>-0.03475428699697225</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.0001599396068042713</v>
+        <v>-0.0001598514555514186</v>
       </c>
     </row>
     <row r="6">
@@ -1588,25 +1588,25 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.02567856049338468</v>
+        <v>0.008429673534754878</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.01611752063239957</v>
+        <v>-0.03756403762516969</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.007757148097371047</v>
+        <v>0.007752008325765836</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.05468112445232187</v>
+        <v>-0.05468426230363599</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.07039141951045735</v>
+        <v>0.07039143503383971</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.03197113535587293</v>
+        <v>-0.03196916211406742</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.03579220782928394</v>
+        <v>-0.03578790213718086</v>
       </c>
       <c r="I6" s="15" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>0.03194877773459881</v>
+        <v>0.03434212909759871</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>-0.01995834460075785</v>
+        <v>-0.01793792450988463</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.01262156505454926</v>
+        <v>-0.01262747563114497</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.2342746915029195</v>
+        <v>0.2342920123729142</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.08514683329066064</v>
+        <v>0.08514948577178849</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.001828362325293931</v>
+        <v>0.001811002458646849</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.01272048862291508</v>
+        <v>-0.01271640475611369</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.01893955996507724</v>
+        <v>0.0189367763434356</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.03327174407668665</v>
+        <v>-0.03327001518552131</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.009816318230256416</v>
+        <v>0.009818609372767462</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.01310744811088216</v>
+        <v>-0.003262009702056479</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.003567056045144845</v>
+        <v>-0.007301747479562914</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.03849654387937707</v>
+        <v>-0.03849631526241992</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.08326898836574714</v>
+        <v>0.08327282080534459</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.04585391637624059</v>
+        <v>0.04584860196249685</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.09049315071296093</v>
+        <v>-0.09048957973142147</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.04592984267103939</v>
+        <v>-0.04592803325112615</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.01214169244451857</v>
+        <v>0.01214548637417456</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.01468262204018322</v>
+        <v>0.0146882802080337</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.08105219452741075</v>
+        <v>0.0880770838640752</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.05964383855496469</v>
+        <v>0.0551599537252927</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>0.0130253644097198</v>
+        <v>-0.01236672486578139</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.02370933920132523</v>
+        <v>-0.02370428335911168</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.03836960668594547</v>
+        <v>-0.03837503470185599</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.06395465545065537</v>
+        <v>0.06395772340958561</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.04377500036727278</v>
+        <v>0.04375583141333128</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.01691158667777315</v>
+        <v>0.01167852061430374</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.02193476349063295</v>
+        <v>-0.01866558428646692</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.03361339861299806</v>
+        <v>-0.03179454349260247</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.02326482495029025</v>
+        <v>0.0232846054949758</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.02757392577394868</v>
+        <v>0.0275649188814131</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.02508037417924158</v>
+        <v>-0.02989228617666706</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.01477645602598421</v>
+        <v>0.01477691431077544</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.01867136437456218</v>
+        <v>0.01871865490884028</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.05106399033873732</v>
+        <v>-0.05107475433302833</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>0.01199849141439713</v>
+        <v>0.01201093085137495</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.007010167799081035</v>
+        <v>0.007003960979557577</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>-0.01127694001676827</v>
+        <v>0.0008132400937672646</v>
       </c>
     </row>
     <row r="10">
@@ -1752,7 +1752,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.01590675881358306</v>
+        <v>-0.01951385709994891</v>
       </c>
       <c r="C10" s="15" t="n">
         <v>0</v>
@@ -1761,16 +1761,16 @@
         <v>0</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>-0.01472117746978197</v>
+        <v>-0.01472092126539881</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.02577387787038909</v>
+        <v>0.02577471436001155</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.07181776963827669</v>
+        <v>0.07181856018058075</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>-0.006322720925453718</v>
+        <v>-0.006322398884841651</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1898,22 +1898,22 @@
         <v>-0.03568555111597804</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.1754238856323269</v>
+        <v>0.1580663472310568</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.06756288245696351</v>
+        <v>-0.05997031946675924</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.03778666752368864</v>
+        <v>-0.02952268155936877</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.02603199700108649</v>
+        <v>0.01976250115160827</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1329484658718267</v>
+        <v>0.1252114084922522</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.353861084084913</v>
+        <v>0.3896320861312401</v>
       </c>
     </row>
     <row r="3">
@@ -1921,40 +1921,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.119697230861069</v>
+        <v>-0.1197045622604412</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.02786776831296855</v>
+        <v>-0.02785790945520683</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.04333063683317839</v>
+        <v>-0.04331391924725003</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.06464160022365095</v>
+        <v>-0.07355042408024093</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.03831780163345011</v>
+        <v>-0.05344401109844255</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.1639160426090922</v>
+        <v>0.1743170439905022</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0.08807385286485769</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.2844043959266498</v>
+        <v>0.247263557443439</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.06648280493155367</v>
+        <v>-0.06648296729160064</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.06828156938795082</v>
+        <v>-0.06829367726674807</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-0.004364497549251833</v>
+        <v>-0.004358574780589208</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.003350953276877622</v>
+        <v>-0.003354467945650974</v>
       </c>
     </row>
     <row r="4">
@@ -1962,40 +1962,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.2279120643254697</v>
+        <v>0.2131613291342058</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.03016255058107919</v>
+        <v>0.03016305148671949</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.1361678203205171</v>
+        <v>-0.1361601423701148</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.005754951443306844</v>
+        <v>-0.00575102369800351</v>
       </c>
       <c r="F4" s="15" t="n">
         <v>-0.01869687499886785</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.01724004538510615</v>
+        <v>-0.01723944822004986</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.05960565009182406</v>
+        <v>0.07807552847332699</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.03534020510262736</v>
+        <v>-0.0323956126492192</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.004768255215060968</v>
+        <v>-0.003819493283976461</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.0004638817317081934</v>
+        <v>0.001347793926123053</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.02343829118782592</v>
+        <v>0.02571806880955219</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.09186025775379791</v>
+        <v>0.08276715929215572</v>
       </c>
     </row>
     <row r="5">
@@ -2006,37 +2006,37 @@
         <v>0.03685602696773627</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.001780502297182407</v>
+        <v>0.001633571645025533</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.04440421813896167</v>
+        <v>0.04387609041268759</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.03291264770270108</v>
+        <v>0.03306073710623503</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.04374766704315736</v>
+        <v>0.04445787362206799</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.01495354713583485</v>
+        <v>0.01495036376413794</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.0896106884172303</v>
+        <v>0.08960457530728227</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.04023549747324873</v>
+        <v>-0.04023880484974218</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.004641872221317289</v>
+        <v>0.006260589165012931</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>-0.01038390147813006</v>
+        <v>0.04116585721751398</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.001192979795360039</v>
+        <v>0.01857751619442283</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.007843628425546978</v>
+        <v>0.007843717672985306</v>
       </c>
     </row>
     <row r="6">
@@ -2044,25 +2044,25 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.03337028530356556</v>
+        <v>0.01630601552642386</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.03357531681287451</v>
+        <v>-0.05397760217323355</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.07366241641119875</v>
+        <v>-0.07366751930502446</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.008229231970812267</v>
+        <v>-0.00823254337357715</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.1062011431977454</v>
+        <v>0.1062011718360942</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.04374574667379538</v>
+        <v>0.04374753432489542</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.01192787752418445</v>
+        <v>-0.01192353236386134</v>
       </c>
       <c r="I6" s="15" t="n">
         <v>0.07966801273828805</v>
@@ -2074,10 +2074,10 @@
         <v>0.09307593245600398</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.01229304516832275</v>
+        <v>-0.009923007748505075</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.04056258214699016</v>
+        <v>0.04277767542123923</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.003473366838328884</v>
+        <v>0.003467370390305202</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.0125946048132245</v>
+        <v>-0.01258028080972451</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.01712148568656902</v>
+        <v>-0.01711921360196866</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.04287358005475927</v>
+        <v>0.04285569212730533</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.06814360553766696</v>
+        <v>0.0681474845616914</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.003048806374764568</v>
+        <v>-0.003051533807923112</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.0711511739170354</v>
+        <v>-0.07114970155668854</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.0187164973070677</v>
+        <v>-0.01871426345561678</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.001897262220920126</v>
+        <v>-0.01423751828564923</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.03151107797803032</v>
+        <v>-0.03510671823612965</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.03534204382497919</v>
+        <v>-0.03534177905364044</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.002398414631496149</v>
+        <v>0.002401906603809234</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.02525071723039141</v>
+        <v>-0.02525582555566186</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.1564550389428873</v>
+        <v>-0.156451588976806</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.04862673789032623</v>
+        <v>0.04862865790316673</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.08855274366974486</v>
+        <v>-0.08854938334964157</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.005257492268664565</v>
+        <v>0.005263119356184509</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.07642310245395123</v>
+        <v>-0.07027353582557783</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-0.07895873698732303</v>
+        <v>-0.08274259812502183</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>0.03441858966485811</v>
+        <v>0.00896907611440434</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>0.02881684291597031</v>
+        <v>0.02882196988897312</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.07135269543957956</v>
+        <v>-0.07135789278836002</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.07077507111206582</v>
+        <v>0.07077793103192942</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.07562955106350611</v>
+        <v>-0.07564647512674394</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.03643980364262533</v>
+        <v>-0.04129836899017836</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>0.04569695296789056</v>
+        <v>0.04951809808115337</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.01015943642907002</v>
+        <v>0.01193526701837189</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.08933149402001483</v>
+        <v>-0.08931345858521988</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.04234819102096288</v>
+        <v>-0.0423562771639614</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.07606379481658154</v>
+        <v>-0.08079858485273261</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.01683581898318676</v>
+        <v>0.01684943767857594</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.08508696947804606</v>
+        <v>0.08513224546933618</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.06355697910932745</v>
+        <v>-0.06356756579207989</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.02170138777292008</v>
+        <v>-0.0216891085539247</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.03595295875511317</v>
+        <v>-0.03595876682650878</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.03887154819650096</v>
+        <v>0.05151190911178838</v>
       </c>
     </row>
     <row r="10">
@@ -2208,7 +2208,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.1183407341990415</v>
+        <v>0.11445187327408</v>
       </c>
       <c r="C10" s="15" t="n">
         <v>0.004280811429914211</v>
@@ -2217,16 +2217,16 @@
         <v>0.07009750317718355</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.1142593440073392</v>
+        <v>0.1142596098666933</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.01521045990534586</v>
+        <v>-0.01520964118741186</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-0.08546799579557651</v>
+        <v>-0.08546727113461638</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.003873710008839959</v>
+        <v>0.003874032049452136</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>

--- a/backtest/rotation_strategy/bt_report/rs_m_ind/single_run/summary.xlsx
+++ b/backtest/rotation_strategy/bt_report/rs_m_ind/single_run/summary.xlsx
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>63564950.93363357</v>
+        <v>61477159.42814904</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>10997.75033356249</v>
+        <v>2491.780949052423</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>5.356495093363357</v>
+        <v>5.147715942814904</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.2624245519840278</v>
+        <v>0.2571234795293944</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>6.356495093363357</v>
+        <v>6.147715942814904</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>167.0430993607534</v>
+        <v>165.5852141847725</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.3557203381895001</v>
+        <v>0.3466994153296191</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.2059520100377879</v>
+        <v>0.2027255017202166</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.026174143265931</v>
+        <v>1.018600247722466</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1452822983715811</v>
+        <v>0.1444474184378625</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.454703221406114</v>
+        <v>1.429559963791967</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.2071964947204108</v>
+        <v>0.2206158238475012</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.02064248868431065</v>
+        <v>0.02033799295921488</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.9205658625447453</v>
+        <v>0.8663097667048713</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.08570560487962542</v>
+        <v>0.08179245927151024</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.1998305648433864</v>
+        <v>0.1942318007741244</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.3770982474649243</v>
+        <v>0.3831242855589008</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.349195744342565</v>
+        <v>1.357452207413292</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.4468840123109739</v>
+        <v>0.436408168489303</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.5943903112354318</v>
+        <v>0.5819303150841233</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2582834280763433</v>
+        <v>0.2533782854074831</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.1931844159939574</v>
+        <v>0.1875019601565348</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.3980238605089011</v>
+        <v>0.4091250755557113</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>1.010740493303792</v>
+        <v>1.009542090483884</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.600003386632722</v>
+        <v>1.53654898672668</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.330680099545216</v>
+        <v>1.360711467206008</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03383307050750729</v>
+        <v>0.03273166980726297</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.1623090729151981</v>
+        <v>0.1764954329809231</v>
       </c>
     </row>
   </sheetData>
@@ -1157,16 +1157,16 @@
         <v>2014</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.825995999999998</v>
+        <v>0.6739979999999991</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.662557571680203</v>
+        <v>0.526085147052424</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.453839100514076</v>
+        <v>3.401434552748155</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>5.715718500928324</v>
+        <v>5.530984444476212</v>
       </c>
       <c r="F2" s="13" t="n">
         <v>0.5789473684210527</v>
@@ -1177,16 +1177,16 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>1.126240692750696</v>
+        <v>1.163918953308188</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>-0.01248729789080339</v>
+        <v>0.004557541235247292</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>2.718459351254032</v>
+        <v>2.807094020631129</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>3.571784410520055</v>
+        <v>3.805933552967469</v>
       </c>
       <c r="F3" s="13" t="n">
         <v>0.4230769230769231</v>
@@ -1197,16 +1197,16 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.06013047754968621</v>
+        <v>-0.07493106772423476</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.1962911729237135</v>
+        <v>0.1790608455753444</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.3149366029889784</v>
+        <v>-0.3880428358917373</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>0.08594507673515149</v>
+        <v>-0.002623790174586808</v>
       </c>
       <c r="F4" s="13" t="n">
         <v>0.58</v>
@@ -1217,19 +1217,19 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.2135772324303575</v>
+        <v>0.2286561546730114</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.3353270035154455</v>
+        <v>0.3517778150528274</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.666653685275158</v>
+        <v>1.751708929671074</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>2.36151763781232</v>
+        <v>2.459031597586601</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.6078431372549019</v>
+        <v>0.6274509803921569</v>
       </c>
     </row>
     <row r="6">
@@ -1237,16 +1237,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.0616700734621315</v>
+        <v>-0.06164478885452031</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.2450787543386432</v>
+        <v>0.2451129115074649</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-0.3659620169312839</v>
+        <v>-0.3657431330470629</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.1390411352413521</v>
+        <v>0.1392502373831807</v>
       </c>
       <c r="F6" s="13" t="n">
         <v>0.6470588235294118</v>
@@ -1257,16 +1257,16 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.3409083908180969</v>
+        <v>0.3721526890170332</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.09334475859490793</v>
+        <v>-0.07190090715980178</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.564855717095569</v>
+        <v>1.669872074110096</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.6446822525591677</v>
+        <v>0.8531448552839727</v>
       </c>
       <c r="F7" s="13" t="n">
         <v>0.4615384615384616</v>
@@ -1277,16 +1277,16 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.1018368658919911</v>
+        <v>0.1281152202823918</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.3571855008947672</v>
+        <v>-0.3412861685412383</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.5327571898937581</v>
+        <v>0.6351156579303923</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>-1.854612139138846</v>
+        <v>-1.788800704481487</v>
       </c>
       <c r="F8" s="13" t="n">
         <v>0.3461538461538461</v>
@@ -1297,19 +1297,19 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>-0.01897739239213489</v>
+        <v>-0.02762215591571517</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.1636035858756367</v>
+        <v>-0.1696962702941715</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>-0.01131529288645066</v>
+        <v>-0.05802698326042656</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>-0.430463422074246</v>
+        <v>-0.5119944951473883</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.4230769230769231</v>
       </c>
     </row>
     <row r="10">
@@ -1317,16 +1317,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.05540581892433043</v>
+        <v>0.0571952181889997</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.2065587767872973</v>
+        <v>0.2085143383326719</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>1.138042761631603</v>
+        <v>1.165803160751011</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>1.571654632092629</v>
+        <v>1.593915405216239</v>
       </c>
       <c r="F10" s="13" t="n">
         <v>0.52</v>
@@ -1442,22 +1442,22 @@
         <v>0.02885034595790326</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.1108274094397124</v>
+        <v>0.1116386240152867</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.002422196967088008</v>
+        <v>-0.002439842226477085</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.05013720456758386</v>
+        <v>0.05162648550868854</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.001834212788913492</v>
+        <v>0.00183115212861984</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1714263838265537</v>
+        <v>0.1501881539419969</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.3115347072635184</v>
+        <v>0.2219614621801009</v>
       </c>
     </row>
     <row r="3">
@@ -1465,40 +1465,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.01274318235089278</v>
+        <v>0.02261173549789208</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.1168794088462177</v>
+        <v>0.1168425971901743</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.1621434236174388</v>
+        <v>0.1621127411059444</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.1377470630730011</v>
+        <v>0.1397660910836009</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.1784742351695321</v>
+        <v>0.1783814009030393</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.02590098662879237</v>
+        <v>-0.01796545645864978</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.01518831888611549</v>
+        <v>0.01879267689262742</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.002217062204053821</v>
+        <v>0.002218373275552299</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.1146058214610646</v>
+        <v>0.1146214888053509</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.07526697528520199</v>
+        <v>0.0752650288986132</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.01562211025620841</v>
+        <v>0.01011425982083725</v>
       </c>
     </row>
     <row r="4">
@@ -1506,40 +1506,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.07776624742724225</v>
+        <v>-0.0884179973696968</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>-0.01648727761627367</v>
+        <v>-0.01717719361947534</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.03994127577526352</v>
+        <v>0.04483374879444413</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.0474785647971171</v>
+        <v>-0.05130890299399049</v>
       </c>
       <c r="F4" s="15" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.01580157118432801</v>
+        <v>0.01580243152590532</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.02964516169998355</v>
+        <v>0.02970580629761543</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.001299989502509202</v>
+        <v>0.001126064545579952</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.02198025092288058</v>
+        <v>-0.02598850265911257</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.007269373778140409</v>
+        <v>0.007268687558289244</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.03783119768552012</v>
+        <v>0.03783432463647229</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.02302748095813212</v>
+        <v>-0.02302717125740683</v>
       </c>
     </row>
     <row r="5">
@@ -1550,37 +1550,37 @@
         <v>0</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.02381852811005558</v>
+        <v>0.02615663662358836</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.03389485715203455</v>
+        <v>0.02389275220030385</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.003621917389734053</v>
+        <v>0.001696217933897737</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.00281871802114475</v>
+        <v>-0.001924720407990965</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.04775564729213011</v>
+        <v>0.04775625163709307</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.04449289120588373</v>
+        <v>0.04449089466597322</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.02297993628608452</v>
+        <v>0.02581576021450882</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.01547638936161966</v>
+        <v>0.01119094116316233</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.04412599273755946</v>
+        <v>0.05986118963084075</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.03475428699697225</v>
+        <v>-0.02766513852994246</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.0001598514555514186</v>
+        <v>-0.0001597923961645931</v>
       </c>
     </row>
     <row r="6">
@@ -1588,25 +1588,25 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.008429673534754878</v>
+        <v>0.008443390326157374</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.03756403762516969</v>
+        <v>-0.037557551298812</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.007752008325765836</v>
+        <v>0.007750979664470803</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.05468426230363599</v>
+        <v>-0.05467987953267206</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.07039143503383971</v>
+        <v>0.07040395461897186</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.03196916211406742</v>
+        <v>-0.03197431433478259</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.03578790213718086</v>
+        <v>-0.0357907300597059</v>
       </c>
       <c r="I6" s="15" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>0.03434212909759871</v>
+        <v>0.03434774103576399</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>-0.01793792450988463</v>
+        <v>-0.01794369659977235</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.01262747563114497</v>
+        <v>-0.01260734765549953</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.2342920123729142</v>
+        <v>0.2342286040095154</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.08514948577178849</v>
+        <v>0.08514031215027651</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.001811002458646849</v>
+        <v>0.001866496562855646</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.01271640475611369</v>
+        <v>-0.01272893831933242</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.0189367763434356</v>
+        <v>0.02534363368642167</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.03327001518552131</v>
+        <v>-0.01694550854184673</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.009818609372767462</v>
+        <v>0.009821174755894058</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>-0.003262009702056479</v>
+        <v>-0.003252902474748298</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.007301747479562914</v>
+        <v>-0.007299225938378506</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.03849631526241992</v>
+        <v>-0.03849645912347233</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.08327282080534459</v>
+        <v>0.08327582659004218</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.04584860196249685</v>
+        <v>0.04585212642539838</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.09048957973142147</v>
+        <v>-0.09049137488977244</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.04592803325112615</v>
+        <v>-0.04592589213914078</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.01214548637417456</v>
+        <v>0.01213693892639944</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.0146882802080337</v>
+        <v>0.01468458756997637</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.0880770838640752</v>
+        <v>0.09923237547074604</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.0551599537252927</v>
+        <v>0.05600634270998017</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.01236672486578139</v>
+        <v>-0.01631372341156367</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.02370428335911168</v>
+        <v>-0.02262532946454388</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.03837503470185599</v>
+        <v>-0.03838171489589193</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.06395772340958561</v>
+        <v>0.06691480381499537</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.04375583141333128</v>
+        <v>0.05710400943496241</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.01167852061430374</v>
+        <v>-0.01394309456971088</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.01866558428646692</v>
+        <v>-0.03494211558432825</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.03179454349260247</v>
+        <v>-0.02666093585289975</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.0232846054949758</v>
+        <v>0.02742063807996509</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.0275649188814131</v>
+        <v>0.0302386068195668</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.02989228617666706</v>
+        <v>-0.0226684575205206</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.01477691431077544</v>
+        <v>0.009194067170580134</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.01871865490884028</v>
+        <v>0.0199693890661452</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.05107475433302833</v>
+        <v>-0.05106434272992155</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>0.01201093085137495</v>
+        <v>0.01199406487368204</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.007003960979557577</v>
+        <v>0.01700257647963976</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.0008132400937672646</v>
+        <v>0.00945956220730193</v>
       </c>
     </row>
     <row r="10">
@@ -1752,7 +1752,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.01951385709994891</v>
+        <v>-0.0178426271242258</v>
       </c>
       <c r="C10" s="15" t="n">
         <v>0</v>
@@ -1761,16 +1761,16 @@
         <v>0</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>-0.01472092126539881</v>
+        <v>-0.01472083191364859</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.02577471436001155</v>
+        <v>0.02577388105029677</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.07181856018058075</v>
+        <v>0.07181112352860342</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>-0.006322398884841651</v>
+        <v>-0.006323745239896317</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1898,22 +1898,22 @@
         <v>-0.03568555111597804</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.1580663472310568</v>
+        <v>0.1589128973498108</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.05997031946675924</v>
+        <v>-0.05998701652159655</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.02952268155936877</v>
+        <v>-0.02812912515648791</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.01976250115160827</v>
+        <v>0.01975903251994371</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1252114084922522</v>
+        <v>0.1048161344373812</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.3896320861312401</v>
+        <v>0.2963273490435121</v>
       </c>
     </row>
     <row r="3">
@@ -1921,40 +1921,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.1197045622604412</v>
+        <v>-0.1108340626509492</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.02785790945520683</v>
+        <v>-0.02789137400481567</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.04331391924725003</v>
+        <v>-0.04334105364756324</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.07355042408024093</v>
+        <v>-0.07191794627522918</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.05344401109844255</v>
+        <v>-0.0535269744561695</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.1743170439905022</v>
+        <v>0.1831488523326539</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0.08807385286485769</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.247263557443439</v>
+        <v>0.2514117738830384</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.06648296729160064</v>
+        <v>-0.06648158091713163</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.06829367726674807</v>
+        <v>-0.06827939459584964</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-0.004358574780589208</v>
+        <v>-0.004360706648024903</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.003354467945650974</v>
+        <v>-0.008673230068610427</v>
       </c>
     </row>
     <row r="4">
@@ -1962,40 +1962,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.2131613291342058</v>
+        <v>0.2005920763378439</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.03016305148671949</v>
+        <v>0.02945353442947307</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.1361601423701148</v>
+        <v>-0.1321546878515849</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.00575102369800351</v>
+        <v>-0.009751449574708193</v>
       </c>
       <c r="F4" s="15" t="n">
         <v>-0.01869687499886785</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.01723944822004986</v>
+        <v>-0.01723841981023799</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.07807552847332699</v>
+        <v>0.07813772518755768</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.0323956126492192</v>
+        <v>-0.03256465356275962</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.003819493283976461</v>
+        <v>-0.007682305361589536</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.001347793926123053</v>
+        <v>0.001347103425745289</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.02571806880955219</v>
+        <v>0.02572114760570154</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.08276715929215572</v>
+        <v>0.08276752588950642</v>
       </c>
     </row>
     <row r="5">
@@ -2006,37 +2006,37 @@
         <v>0.03685602696773627</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.001633571645025533</v>
+        <v>0.003952282350411229</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.04387609041268759</v>
+        <v>0.03396792923500569</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.03306073710623503</v>
+        <v>0.0310761039515004</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.04445787362206799</v>
+        <v>0.04539433134951087</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.01495036376413794</v>
+        <v>0.01495091784367109</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.08960457530728227</v>
+        <v>0.08960255945622908</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.04023880484974218</v>
+        <v>-0.03752450470363822</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.006260589165012931</v>
+        <v>0.001902424317049123</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.04116585721751398</v>
+        <v>0.05668133645517015</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.01857751619442283</v>
+        <v>0.02595978116144093</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.007843717672985306</v>
+        <v>0.007843777466792323</v>
       </c>
     </row>
     <row r="6">
@@ -2044,25 +2044,25 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.01630601552642386</v>
+        <v>0.01631980569243385</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.05397760217323355</v>
+        <v>-0.05397150923450733</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.07366751930502446</v>
+        <v>-0.07366861681359826</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.00823254337357715</v>
+        <v>-0.00822799236567251</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.1062011718360942</v>
+        <v>0.1062142645608579</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.04374753432489542</v>
+        <v>0.0437424069815191</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.01192353236386134</v>
+        <v>-0.01192638608925289</v>
       </c>
       <c r="I6" s="15" t="n">
         <v>0.07966801273828805</v>
@@ -2074,10 +2074,10 @@
         <v>0.09307593245600398</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.009923007748505075</v>
+        <v>-0.009917403790374202</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.04277767542123923</v>
+        <v>0.04277175748661421</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.003467370390305202</v>
+        <v>0.003487785091324636</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.01258028080972451</v>
+        <v>-0.0126327339247847</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.01711921360196866</v>
+        <v>-0.01712717780748108</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.04285569212730533</v>
+        <v>0.042912702027462</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.0681474845616914</v>
+        <v>0.0681356139051621</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.003051533807923112</v>
+        <v>0.003329291994137451</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.07114970155668854</v>
+        <v>-0.05524609546114501</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.01871426345561678</v>
+        <v>-0.01871179378490573</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>-0.01423751828564923</v>
+        <v>-0.01422859211036975</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.03510671823612965</v>
+        <v>-0.03510427704911301</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.03534177905364044</v>
+        <v>-0.035342055723382</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.002401906603809234</v>
+        <v>0.002404813775539028</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.02525582555566186</v>
+        <v>-0.02525232832629176</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.156451588976806</v>
+        <v>-0.1564529425427728</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.04862865790316673</v>
+        <v>0.04863109887605743</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.08854938334964157</v>
+        <v>-0.0885570207128864</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.005263119356184509</v>
+        <v>0.00525950933131103</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.07027353582557783</v>
+        <v>-0.06049105636360042</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-0.08274259812502183</v>
+        <v>-0.0817671958730477</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>0.00896907611440434</v>
+        <v>0.005004886603640513</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>0.02882196988897312</v>
+        <v>0.02997117830149154</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.07135789278836002</v>
+        <v>-0.07136387506498965</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.07077793103192942</v>
+        <v>0.07415576871699581</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.07564647512674394</v>
+        <v>-0.06393711308913552</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.04129836899017836</v>
+        <v>-0.06682627538479924</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>0.04951809808115337</v>
+        <v>0.03367580378609047</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.01193526701837189</v>
+        <v>0.01694541483409551</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.08931345858521988</v>
+        <v>-0.08553960791885229</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.0423562771639614</v>
+        <v>-0.03932797946717559</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.08079858485273261</v>
+        <v>-0.07355538823032548</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.01684943767857594</v>
+        <v>0.01192254419954897</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.08513224546933618</v>
+        <v>0.08631000181984128</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.06356756579207989</v>
+        <v>-0.06355731844030565</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.0216891085539247</v>
+        <v>-0.0217056693948563</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.03595876682650878</v>
+        <v>-0.02620963452639924</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.05151190911178838</v>
+        <v>0.06051235561164026</v>
       </c>
     </row>
     <row r="10">
@@ -2208,7 +2208,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.11445187327408</v>
+        <v>0.1162683055062594</v>
       </c>
       <c r="C10" s="15" t="n">
         <v>0.004280811429914211</v>
@@ -2217,16 +2217,16 @@
         <v>0.07009750317718355</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.1142596098666933</v>
+        <v>0.1142596827268003</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.01520964118741186</v>
+        <v>-0.01521045455179715</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-0.08546727113461638</v>
+        <v>-0.08547366911956455</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.003874032049452136</v>
+        <v>0.00387268569439736</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>

--- a/backtest/rotation_strategy/bt_report/rs_m_ind/single_run/summary.xlsx
+++ b/backtest/rotation_strategy/bt_report/rs_m_ind/single_run/summary.xlsx
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>61477159.42814904</v>
+        <v>61472834.98307132</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>2491.780949052423</v>
+        <v>1769.574371321146</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>5.147715942814904</v>
+        <v>5.147283498307132</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.2571234795293944</v>
+        <v>0.2571123371375668</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>6.147715942814904</v>
+        <v>6.147283498307132</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>165.5852141847725</v>
+        <v>165.5941490875089</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.3466994153296191</v>
+        <v>0.2592915258871397</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.2027255017202166</v>
+        <v>0.2027283707671999</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.018600247722466</v>
+        <v>1.018544915964996</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1444474184378625</v>
+        <v>0.1444491273760883</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.429559963791967</v>
+        <v>1.429485626653772</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.2206158238475012</v>
+        <v>0.2206221982536451</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.02033799295921488</v>
+        <v>0.02033832807665807</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.8663097667048713</v>
+        <v>0.8661818613261182</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.08179245927151024</v>
+        <v>0.08178311742814071</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.1942318007741244</v>
+        <v>0.1942205382999752</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.3831242855589008</v>
+        <v>0.3831267163315676</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.357452207413292</v>
+        <v>1.357357492595406</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.436408168489303</v>
+        <v>0.4363731108430378</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.5819303150841233</v>
+        <v>0.5819718137654115</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2533782854074831</v>
+        <v>0.2533796327435372</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.1875019601565348</v>
+        <v>0.1874912343484642</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.4091250755557113</v>
+        <v>0.4091223223682925</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>1.009542090483884</v>
+        <v>1.009507203565606</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.53654898672668</v>
+        <v>1.536524728143917</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.360711467206008</v>
+        <v>1.360663269913359</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03273166980726297</v>
+        <v>0.03273154878383047</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.1764954329809231</v>
+        <v>0.1765007035881299</v>
       </c>
     </row>
   </sheetData>
@@ -1157,16 +1157,16 @@
         <v>2014</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.6739979999999991</v>
+        <v>0.6740319999999997</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.526085147052424</v>
+        <v>0.5261155832367734</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.401434552748155</v>
+        <v>3.401419022082913</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>5.530984444476212</v>
+        <v>5.530934642303164</v>
       </c>
       <c r="F2" s="13" t="n">
         <v>0.5789473684210527</v>
@@ -1177,16 +1177,16 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>1.163918953308188</v>
+        <v>1.164001643935123</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.004557541235247292</v>
+        <v>0.004593325340948445</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>2.807094020631129</v>
+        <v>2.807259157457396</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>3.805933552967469</v>
+        <v>3.806361916300543</v>
       </c>
       <c r="F3" s="13" t="n">
         <v>0.4230769230769231</v>
@@ -1197,16 +1197,16 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.07493106772423476</v>
+        <v>-0.07497195390724082</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.1790608455753444</v>
+        <v>0.1790097957669186</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.3880428358917373</v>
+        <v>-0.3882965906471331</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>-0.002623790174586808</v>
+        <v>-0.002903721554969346</v>
       </c>
       <c r="F4" s="13" t="n">
         <v>0.58</v>
@@ -1217,16 +1217,16 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.2286561546730114</v>
+        <v>0.2286504920600151</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.3517778150528274</v>
+        <v>0.3517715590122462</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.751708929671074</v>
+        <v>1.751679169620282</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>2.459031597586601</v>
+        <v>2.458992221185023</v>
       </c>
       <c r="F5" s="13" t="n">
         <v>0.6274509803921569</v>
@@ -1237,16 +1237,16 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.06164478885452031</v>
+        <v>-0.06164856183473116</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.2451129115074649</v>
+        <v>0.2451092885644754</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-0.3657431330470629</v>
+        <v>-0.3657508030398334</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.1392502373831807</v>
+        <v>0.1392486684664878</v>
       </c>
       <c r="F6" s="13" t="n">
         <v>0.6470588235294118</v>
@@ -1257,16 +1257,16 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.3721526890170332</v>
+        <v>0.3721138146567122</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.07190090715980178</v>
+        <v>-0.07192673756544385</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.669872074110096</v>
+        <v>1.669699255603865</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.8531448552839727</v>
+        <v>0.8528096489858246</v>
       </c>
       <c r="F7" s="13" t="n">
         <v>0.4615384615384616</v>
@@ -1277,16 +1277,16 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.1281152202823918</v>
+        <v>0.1280975583990279</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.3412861685412383</v>
+        <v>-0.3412950383415547</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.6351156579303923</v>
+        <v>0.6350320246848854</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>-1.788800704481487</v>
+        <v>-1.788924941533658</v>
       </c>
       <c r="F8" s="13" t="n">
         <v>0.3461538461538461</v>
@@ -1297,16 +1297,16 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>-0.02762215591571517</v>
+        <v>-0.02765281194445698</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.1696962702941715</v>
+        <v>-0.1697226802435595</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>-0.05802698326042656</v>
+        <v>-0.05820637044606131</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>-0.5119944951473883</v>
+        <v>-0.5122191107058666</v>
       </c>
       <c r="F9" s="13" t="n">
         <v>0.4230769230769231</v>
@@ -1317,16 +1317,16 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.0571952181889997</v>
+        <v>0.05719456833037103</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.2085143383326719</v>
+        <v>0.2085139793681084</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>1.165803160751011</v>
+        <v>1.165725915777688</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>1.593915405216239</v>
+        <v>1.593822376633312</v>
       </c>
       <c r="F10" s="13" t="n">
         <v>0.52</v>
@@ -1436,28 +1436,28 @@
         <v>-0.0210530000000001</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.01218145619732169</v>
+        <v>0.01218145619732192</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.02885034595790326</v>
+        <v>0.02885135516999182</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.1116386240152867</v>
+        <v>0.1116385145076799</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.002439842226477085</v>
+        <v>-0.002439840073557575</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.05162648550868854</v>
+        <v>0.0516255552823246</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.00183115212861984</v>
+        <v>0.001834516670886188</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1501881539419969</v>
+        <v>0.1501851307669706</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.2219614621801009</v>
+        <v>0.2219853890131451</v>
       </c>
     </row>
     <row r="3">
@@ -1465,40 +1465,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.02261173549789208</v>
+        <v>0.02260828944727411</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.1168425971901743</v>
+        <v>0.1168447068980929</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.1621127411059444</v>
+        <v>0.1621075964627918</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.1397660910836009</v>
+        <v>0.1397208706129209</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.1783814009030393</v>
+        <v>0.1784431700518985</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.01796545645864978</v>
+        <v>-0.01793816042874641</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.01879267689262742</v>
+        <v>0.01879846898820814</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.002218373275552299</v>
+        <v>0.002217568933537528</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.1146214888053509</v>
+        <v>0.1146186424393356</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.0752650288986132</v>
+        <v>0.07526341716289897</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.01011425982083725</v>
+        <v>0.01011704181857409</v>
       </c>
     </row>
     <row r="4">
@@ -1506,40 +1506,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.0884179973696968</v>
+        <v>-0.0884213803977687</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>-0.01717719361947534</v>
+        <v>-0.01717625213033847</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.04483374879444413</v>
+        <v>0.04483094037998181</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.05130890299399049</v>
+        <v>-0.05130765394906012</v>
       </c>
       <c r="F4" s="15" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.01580243152590532</v>
+        <v>0.01580343696234343</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.02970580629761543</v>
+        <v>0.02967417254858251</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.001126064545579952</v>
+        <v>0.001129900184225541</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.02598850265911257</v>
+        <v>-0.02599043370129928</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.007268687558289244</v>
+        <v>0.007268799599652098</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.03783432463647229</v>
+        <v>0.03783392239085215</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.02302717125740683</v>
+        <v>-0.02303881181491274</v>
       </c>
     </row>
     <row r="5">
@@ -1550,37 +1550,37 @@
         <v>0</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.02615663662358836</v>
+        <v>0.0261547698696567</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.02389275220030385</v>
+        <v>0.02389216261339122</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.001696217933897737</v>
+        <v>0.001696197699624369</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.001924720407990965</v>
+        <v>-0.001924981030898443</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.04775625163709307</v>
+        <v>0.04775654765811033</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.04449089466597322</v>
+        <v>0.04449063502039818</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.02581576021450882</v>
+        <v>0.02581416067959319</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.01119094116316233</v>
+        <v>0.01119108094408605</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.05986118963084075</v>
+        <v>0.0598605754167072</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.02766513852994246</v>
+        <v>-0.02766487070034152</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.0001597923961645931</v>
+        <v>-0.0001600336483493781</v>
       </c>
     </row>
     <row r="6">
@@ -1588,25 +1588,25 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.008443390326157374</v>
+        <v>0.00844403694235818</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.037557551298812</v>
+        <v>-0.03755764403150197</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.007750979664470803</v>
+        <v>0.007744143469604836</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.05467987953267206</v>
+        <v>-0.0546779511685872</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.07040395461897186</v>
+        <v>0.07040382892763253</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.03197431433478259</v>
+        <v>-0.03197414170526169</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.0357907300597059</v>
+        <v>-0.03579129098867173</v>
       </c>
       <c r="I6" s="15" t="n">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>0.03434774103576399</v>
+        <v>0.03434809530007055</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>-0.01794369659977235</v>
+        <v>-0.01794334662008856</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.01260734765549953</v>
+        <v>-0.01260779354165376</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.2342286040095154</v>
+        <v>0.2342462503555329</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.08514031215027651</v>
+        <v>0.08513694936550986</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.001866496562855646</v>
+        <v>0.001864117134826371</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.01272893831933242</v>
+        <v>-0.01272895463545531</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.02534363368642167</v>
+        <v>0.02532823850447885</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.01694550854184673</v>
+        <v>-0.01696443838697981</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.009821174755894058</v>
+        <v>0.009820980704160265</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>-0.003252902474748298</v>
+        <v>-0.003251802382334579</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.007299225938378506</v>
+        <v>-0.007298976785700129</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.03849645912347233</v>
+        <v>-0.03850367681299116</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.08327582659004218</v>
+        <v>0.08328008241137907</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.04585212642539838</v>
+        <v>0.04585448488312616</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.09049137488977244</v>
+        <v>-0.09049466225934355</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.04592589213914078</v>
+        <v>-0.04592401942410695</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.01213693892639944</v>
+        <v>0.01213263332894732</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.01468458756997637</v>
+        <v>0.01468517896695376</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.09923237547074604</v>
+        <v>0.09923533102596793</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.05600634270998017</v>
+        <v>0.05601002542445288</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.01631372341156367</v>
+        <v>-0.01628370294090065</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.02262532946454388</v>
+        <v>-0.02262508082538317</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.03838171489589193</v>
+        <v>-0.03838128333925128</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.06691480381499537</v>
+        <v>0.06692646835288807</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.05710400943496241</v>
+        <v>0.05703961406897573</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.01394309456971088</v>
+        <v>-0.01392941464485675</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.03494211558432825</v>
+        <v>-0.03493618551141442</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.02666093585289975</v>
+        <v>-0.02666933063000809</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.02742063807996509</v>
+        <v>0.02737479689474664</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.0302386068195668</v>
+        <v>0.03023883651526105</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.0226684575205206</v>
+        <v>-0.02267570253809392</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.009194067170580134</v>
+        <v>0.009184668274411889</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.0199693890661452</v>
+        <v>0.01997322215442998</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.05106434272992155</v>
+        <v>-0.05107101952649096</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>0.01199406487368204</v>
+        <v>0.01200230708452876</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.01700257647963976</v>
+        <v>0.01700187169603962</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.00945956220730193</v>
+        <v>0.009473723134998169</v>
       </c>
     </row>
     <row r="10">
@@ -1752,7 +1752,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.0178426271242258</v>
+        <v>-0.01783733780153884</v>
       </c>
       <c r="C10" s="15" t="n">
         <v>0</v>
@@ -1761,16 +1761,16 @@
         <v>0</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>-0.01472083191364859</v>
+        <v>-0.01472055477557865</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.02577388105029677</v>
+        <v>0.02577571231178655</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.07181112352860342</v>
+        <v>0.0718046875906857</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>-0.006323745239896317</v>
+        <v>-0.006325794074340529</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1889,31 +1889,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.04331862535215958</v>
+        <v>0.04331869138870825</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.01904821203977047</v>
+        <v>-0.01904821018048075</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>-0.03568555111597804</v>
+        <v>-0.03568454183731373</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.1589128973498108</v>
+        <v>0.15891272533273</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.05998701652159655</v>
+        <v>-0.05998698023864713</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.02812912515648791</v>
+        <v>-0.02812993778888584</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.01975903251994371</v>
+        <v>0.01976246302301332</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1048161344373812</v>
+        <v>0.1048131137174675</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.2963273490435121</v>
+        <v>0.2963521714147215</v>
       </c>
     </row>
     <row r="3">
@@ -1921,40 +1921,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.1108340626509492</v>
+        <v>-0.1108375396521538</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.02789137400481567</v>
+        <v>-0.02788953591484766</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.04334105364756324</v>
+        <v>-0.04334533373881833</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.07191794627522918</v>
+        <v>-0.07195596670484283</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.0535269744561695</v>
+        <v>-0.05347462733012032</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.1831488523326539</v>
+        <v>0.1831784906743321</v>
       </c>
       <c r="H3" s="15" t="n">
         <v>0.08807385286485769</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.2514117738830384</v>
+        <v>0.2514181375592739</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.06648158091713163</v>
+        <v>-0.06648236799820872</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.06827939459584964</v>
+        <v>-0.06828204819045802</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-0.004360706648024903</v>
+        <v>-0.004361993687415189</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.008673230068610427</v>
+        <v>-0.008670628033343841</v>
       </c>
     </row>
     <row r="4">
@@ -1962,40 +1962,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.2005920763378439</v>
+        <v>0.2005879399238613</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.02945353442947307</v>
+        <v>0.02945437678863017</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.1321546878515849</v>
+        <v>-0.1321565876960651</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.009751449574708193</v>
+        <v>-0.009750330162947685</v>
       </c>
       <c r="F4" s="15" t="n">
         <v>-0.01869687499886785</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.01723841981023799</v>
+        <v>-0.01723752168006476</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.07813772518755768</v>
+        <v>0.07810503006444258</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.03256465356275962</v>
+        <v>-0.03256098563187182</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.007682305361589536</v>
+        <v>-0.0076842078131798</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.001347103425745289</v>
+        <v>0.001347212024823019</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.02572114760570154</v>
+        <v>0.0257208551682615</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.08276752588950642</v>
+        <v>0.08275464363678875</v>
       </c>
     </row>
     <row r="5">
@@ -2006,37 +2006,37 @@
         <v>0.03685602696773627</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.003952282350411229</v>
+        <v>0.003950462904731333</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.03396792923500569</v>
+        <v>0.03396733935197527</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.0310761039515004</v>
+        <v>0.03107606692474763</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.04539433134951087</v>
+        <v>0.0453940587509889</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.01495091784367109</v>
+        <v>0.0149512317467293</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.08960255945622908</v>
+        <v>0.08960227615053706</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.03752450470363822</v>
+        <v>-0.03752599001437007</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.001902424317049123</v>
+        <v>0.001902555088135971</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.05668133645517015</v>
+        <v>0.05668072080971998</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.02595978116144093</v>
+        <v>0.02596002722889956</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.007843777466792323</v>
+        <v>0.007843533214568765</v>
       </c>
     </row>
     <row r="6">
@@ -2044,25 +2044,25 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.01631980569243385</v>
+        <v>0.01632041321633459</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.05397150923450733</v>
+        <v>-0.0539715964214974</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.07366861681359826</v>
+        <v>-0.07367383788494475</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.00822799236567251</v>
+        <v>-0.00822595588923114</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.1062142645608579</v>
+        <v>0.106214131209492</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.0437424069815191</v>
+        <v>0.04374257936285342</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.01192638608925289</v>
+        <v>-0.01192694873664324</v>
       </c>
       <c r="I6" s="15" t="n">
         <v>0.07966801273828805</v>
@@ -2074,10 +2074,10 @@
         <v>0.09307593245600398</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.009917403790374202</v>
+        <v>-0.009917055092339311</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.04277175748661421</v>
+        <v>0.04277211227113931</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.003487785091324636</v>
+        <v>0.003487358906415272</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.0126327339247847</v>
+        <v>-0.01261796134591475</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.01712717780748108</v>
+        <v>-0.01713054001444414</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.042912702027462</v>
+        <v>0.04291025026510376</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.0681356139051621</v>
+        <v>0.06813558811331144</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.003329291994137451</v>
+        <v>0.003314093194876966</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.05524609546114501</v>
+        <v>-0.05526439884123946</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.01871179378490573</v>
+        <v>-0.01871196860248281</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>-0.01422859211036975</v>
+        <v>-0.01422748577010602</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.03510427704911301</v>
+        <v>-0.03510403766809889</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.035342055723382</v>
+        <v>-0.0353490874411142</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.002404813775539028</v>
+        <v>0.002408870159361642</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.02525232832629176</v>
+        <v>-0.0252499783336253</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.1564529425427728</v>
+        <v>-0.1564554684398896</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.04863109887605743</v>
+        <v>0.04863307288365593</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.0885570207128864</v>
+        <v>-0.08856084400989672</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.00525950933131103</v>
+        <v>0.005260164443232407</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.06049105636360042</v>
+        <v>-0.060488481045192</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-0.0817671958730477</v>
+        <v>-0.08176265994509713</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>0.005004886603640513</v>
+        <v>0.005035318857584903</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>0.02997117830149154</v>
+        <v>0.02997143063899466</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.07136387506498965</v>
+        <v>-0.07136347743848137</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.07415576871699581</v>
+        <v>0.07416771882790751</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.06393711308913552</v>
+        <v>-0.06399419313201693</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.06682627538479924</v>
+        <v>-0.06681293163603441</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>0.03367580378609047</v>
+        <v>0.03368255349837135</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.01694541483409551</v>
+        <v>0.01693722207627513</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.08553960791885229</v>
+        <v>-0.08558081849863908</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.03932797946717559</v>
+        <v>-0.03932881742688477</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.07355538823032548</v>
+        <v>-0.07356214377716108</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.01192254419954897</v>
+        <v>0.01191290009588086</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.08631000181984128</v>
+        <v>0.08631390038068476</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.06355731844030565</v>
+        <v>-0.0635638250399424</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.0217056693948563</v>
+        <v>-0.02169765321332173</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.02620963452639924</v>
+        <v>-0.02621026948517835</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.06051235561164026</v>
+        <v>0.06052720060766759</v>
       </c>
     </row>
     <row r="10">
@@ -2208,7 +2208,7 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.1162683055062594</v>
+        <v>0.1162743664809456</v>
       </c>
       <c r="C10" s="15" t="n">
         <v>0.004280811429914211</v>
@@ -2217,16 +2217,16 @@
         <v>0.07009750317718355</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.1142596827268003</v>
+        <v>0.1142600179069098</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.01521045455179715</v>
+        <v>-0.01520865905856217</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-0.08547366911956455</v>
+        <v>-0.08547898231107232</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.00387268569439736</v>
+        <v>0.003870636859953258</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>

--- a/backtest/rotation_strategy/bt_report/rs_m_ind/single_run/summary.xlsx
+++ b/backtest/rotation_strategy/bt_report/rs_m_ind/single_run/summary.xlsx
@@ -617,7 +617,7 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>2014-04-16</t>
+          <t>2015-10-08</t>
         </is>
       </c>
       <c r="C2" s="13" t="n"/>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>61472834.98307132</v>
+        <v>20538743.98363514</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>1769.574371321146</v>
+        <v>1920.107235141553</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>5.147283498307132</v>
+        <v>1.053874398363514</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.2571123371375668</v>
+        <v>0.1169394881249797</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>6.147283498307132</v>
+        <v>2.053874398363514</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>165.5941490875089</v>
+        <v>133.7263475292059</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.2592915258871397</v>
+        <v>0.2645997794428289</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.2027283707671999</v>
+        <v>0.1900748637901875</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>1.018544915964996</v>
+        <v>0.5122549135592543</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.1444491273760883</v>
+        <v>0.137810365605941</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>1.429485626653772</v>
+        <v>0.7065272811120971</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.2206221982536451</v>
+        <v>0.2205452288240032</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.02033832807665807</v>
+        <v>0.01950521542045833</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>0.8661818613261182</v>
+        <v>0.1190994851060661</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>0.08178311742814071</v>
+        <v>0.01744066688697288</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.1942205382999752</v>
+        <v>0.07948386976586462</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.3831267163315676</v>
+        <v>0.4096878280463072</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>1.357357492595406</v>
+        <v>0.6589613142586913</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>0.4363731108430378</v>
+        <v>0.1892249875880178</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.5819718137654115</v>
+        <v>0.5819560470858216</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2533796327435372</v>
+        <v>0.2259618286520394</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.1874912343484642</v>
+        <v>0.07708530836980557</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.4091223223682925</v>
+        <v>0.4416172731740708</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>1.009507203565606</v>
+        <v>0.5132069241953686</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>1.536524728143917</v>
+        <v>0.7577584166169444</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>1.360663269913359</v>
+        <v>0.684236498146818</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03273154878383047</v>
+        <v>0.02835012715737208</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.1765007035881299</v>
+        <v>0.1764249110636577</v>
       </c>
     </row>
   </sheetData>
@@ -1102,7 +1102,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
@@ -1154,181 +1154,161 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="9" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.6740319999999997</v>
+        <v>0.2106239999999993</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.5261155832367734</v>
+        <v>-0.08039969345901721</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.401419022082913</v>
+        <v>2.344068196360697</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>5.530934642303164</v>
+        <v>-1.538528921527581</v>
       </c>
       <c r="F2" s="13" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="9" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>1.164001643935123</v>
+        <v>-0.07489195654472375</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>0.004593325340948445</v>
+        <v>0.179103138867683</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>2.807259157457396</v>
+        <v>-0.3878749951120162</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>3.806361916300543</v>
+        <v>-0.002450295810764641</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>-0.07497195390724082</v>
+        <v>0.2282719530553817</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.1790097957669186</v>
+        <v>0.3513554631423046</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>-0.3882965906471331</v>
+        <v>1.749963961344125</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>-0.002903721554969346</v>
+        <v>2.457047721423673</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0.58</v>
+        <v>0.6274509803921569</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.2286504920600151</v>
+        <v>-0.06170485449032553</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.3517715590122462</v>
+        <v>0.2450276473851966</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>1.751679169620282</v>
+        <v>-0.3663124591203498</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>2.458992221185023</v>
+        <v>0.138659110525153</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.6274509803921569</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.06164856183473116</v>
+        <v>0.3720961222748961</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.2451092885644754</v>
+        <v>-0.07194129293973678</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-0.3657508030398334</v>
+        <v>1.669619238719482</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>0.1392486684664878</v>
+        <v>0.8527272142217526</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.4615384615384616</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.3721138146567122</v>
+        <v>0.1279334299638558</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.07192673756544385</v>
+        <v>-0.3413934861010383</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.669699255603865</v>
+        <v>0.6344342180750981</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.8528096489858246</v>
+        <v>-1.789919100410554</v>
       </c>
       <c r="F7" s="13" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.3461538461538461</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.1280975583990279</v>
+        <v>-0.02742371011294637</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.3412950383415547</v>
+        <v>-0.1695283916274548</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.6350320246848854</v>
+        <v>-0.05694791912737854</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>-1.788924941533658</v>
+        <v>-0.5107261043089596</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.4230769230769231</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>-0.02765281194445698</v>
+        <v>0.05717375515815631</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.1697226802435595</v>
+        <v>0.2084897169580186</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>-0.05820637044606131</v>
+        <v>1.165286138833785</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>-0.5122191107058666</v>
+        <v>1.593226913987914</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>0.4230769230769231</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="13" t="n">
-        <v>0.05719456833037103</v>
-      </c>
-      <c r="C10" s="13" t="n">
-        <v>0.2085139793681084</v>
-      </c>
-      <c r="D10" s="13" t="n">
-        <v>1.165725915777688</v>
-      </c>
-      <c r="E10" s="13" t="n">
-        <v>1.593822376633312</v>
-      </c>
-      <c r="F10" s="13" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -1343,7 +1323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD2"/>
@@ -1421,7 +1401,7 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="15" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="15" t="n">
         <v/>
@@ -1433,358 +1413,317 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.0210530000000001</v>
+        <v/>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.01218145619732192</v>
+        <v/>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.02885135516999182</v>
+        <v/>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.1116385145076799</v>
+        <v/>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.002439840073557575</v>
+        <v/>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.0516255552823246</v>
+        <v/>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.001834516670886188</v>
+        <v>0.114606</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1501851307669706</v>
+        <v>0.07526605814072362</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.2219853890131451</v>
+        <v>0.01011766394270164</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>0.02260828944727411</v>
+        <v>-0.08837178182491001</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.1168447068980929</v>
+        <v>-0.017182248905666</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.1621075964627918</v>
+        <v>0.04485025943230969</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.1397208706129209</v>
+        <v>-0.05128895179136739</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.1784431700518985</v>
+        <v>0</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>-0.01793816042874641</v>
+        <v>0.01579710508864896</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0</v>
+        <v>0.02968095061079579</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.01879846898820814</v>
+        <v>0.001120399360127866</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.002217568933537528</v>
+        <v>-0.02598282733450663</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.1146186424393356</v>
+        <v>0.007262407829247808</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.07526341716289897</v>
+        <v>0.03783734847044506</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.01011704181857409</v>
+        <v>-0.02303456842678253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.0884213803977687</v>
+        <v>0</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>-0.01717625213033847</v>
+        <v>0.02614383753676486</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.04483094037998181</v>
+        <v>0.0238427549384892</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.05130765394906012</v>
+        <v>0.001687008504732468</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0</v>
+        <v>-0.001919187119895804</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.01580343696234343</v>
+        <v>0.04773955636105276</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.02967417254858251</v>
+        <v>0.0443619216224318</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.001129900184225541</v>
+        <v>0.02577458945709954</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.02599043370129928</v>
+        <v>0.01120287797027353</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.007268799599652098</v>
+        <v>0.05980075900617599</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.03783392239085215</v>
+        <v>-0.02768741727096113</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.02303881181491274</v>
+        <v>-0.0001599031277779162</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="15" t="n">
+        <v>0.008426788638955962</v>
+      </c>
+      <c r="C5" s="15" t="n">
+        <v>-0.03756258087305075</v>
+      </c>
+      <c r="D5" s="15" t="n">
+        <v>0.007714040467441841</v>
+      </c>
+      <c r="E5" s="15" t="n">
+        <v>-0.05466713542545432</v>
+      </c>
+      <c r="F5" s="15" t="n">
+        <v>0.07035589158452904</v>
+      </c>
+      <c r="G5" s="15" t="n">
+        <v>-0.03195404494134391</v>
+      </c>
+      <c r="H5" s="15" t="n">
+        <v>-0.03579065585090646</v>
+      </c>
+      <c r="I5" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="15" t="n">
-        <v>0.0261547698696567</v>
-      </c>
-      <c r="D5" s="15" t="n">
-        <v>0.02389216261339122</v>
-      </c>
-      <c r="E5" s="15" t="n">
-        <v>0.001696197699624369</v>
-      </c>
-      <c r="F5" s="15" t="n">
-        <v>-0.001924981030898443</v>
-      </c>
-      <c r="G5" s="15" t="n">
-        <v>0.04775654765811033</v>
-      </c>
-      <c r="H5" s="15" t="n">
-        <v>0.04449063502039818</v>
-      </c>
-      <c r="I5" s="15" t="n">
-        <v>0.02581416067959319</v>
-      </c>
       <c r="J5" s="15" t="n">
-        <v>0.01119108094408605</v>
+        <v>0</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.0598605754167072</v>
+        <v>0</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.02766487070034152</v>
+        <v>0.03434031341094124</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>-0.0001600336483493781</v>
+        <v>-0.0179319926439877</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.00844403694235818</v>
+        <v>-0.01263625031087068</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.03755764403150197</v>
+        <v>0.2343330814542448</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.007744143469604836</v>
+        <v>0.08513279849465394</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.0546779511685872</v>
+        <v>0.001706523630343293</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.07040382892763253</v>
+        <v>-0.01269086000753272</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.03197414170526169</v>
+        <v>0.02533479604215616</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.03579129098867173</v>
+        <v>-0.01694780128044426</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0</v>
+        <v>0.009812967126736627</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0</v>
+        <v>-0.003207194917838163</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0</v>
+        <v>-0.007286843338998539</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>0.03434809530007055</v>
+        <v>-0.03849659948762929</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>-0.01794334662008856</v>
+        <v>0.08326752809847848</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.01260779354165376</v>
+        <v>0.04584905649723625</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.2342462503555329</v>
+        <v>-0.09048831501463683</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.08513694936550986</v>
+        <v>-0.04595326020433343</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.001864117134826371</v>
+        <v>0.01212799980089474</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.01272895463545531</v>
+        <v>0.01466727977564108</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.02532823850447885</v>
+        <v>0.09924200610587675</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.01696443838697981</v>
+        <v>0.0559623753819567</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.009820980704160265</v>
+        <v>-0.01635959264650844</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>-0.003251802382334579</v>
+        <v>-0.02260238063905384</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.007298976785700129</v>
+        <v>-0.03839048047684501</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.03850367681299116</v>
+        <v>0.06697048601309374</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.08328008241137907</v>
+        <v>0.05700458449568391</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.04585448488312616</v>
+        <v>-0.01386328844230389</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.09049466225934355</v>
+        <v>-0.03493046548402601</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.04592401942410695</v>
+        <v>-0.02671276687518009</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.01213263332894732</v>
+        <v>0.02738863520534274</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.01468517896695376</v>
+        <v>0.03025087192328124</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.09923533102596793</v>
+        <v>-0.02262830895042889</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.05601002542445288</v>
+        <v>0.009197250594125572</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.01628370294090065</v>
+        <v>0.01994964188172066</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.02262508082538317</v>
+        <v>-0.05102009742668856</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.03838128333925128</v>
+        <v>0.01197896861497316</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.06692646835288807</v>
+        <v>0.01701639647495634</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.05703961406897573</v>
+        <v>0.009574027488434167</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.01392941464485675</v>
+        <v>-0.017811433721588</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.03493618551141442</v>
+        <v>0</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.02666933063000809</v>
+        <v>0</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.02737479689474664</v>
+        <v>-0.01471968506330357</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.03023883651526105</v>
+        <v>0.02577409240441364</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.02267570253809392</v>
+        <v>0.07175912842878374</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.009184668274411889</v>
+        <v>-0.006328633182628662</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.01997322215442998</v>
+        <v/>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.05107101952649096</v>
+        <v/>
       </c>
       <c r="K9" s="15" t="n">
-        <v>0.01200230708452876</v>
+        <v/>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.01700187169603962</v>
+        <v/>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.009473723134998169</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="15" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="15" t="n">
-        <v>-0.01783733780153884</v>
-      </c>
-      <c r="C10" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="15" t="n">
-        <v>-0.01472055477557865</v>
-      </c>
-      <c r="F10" s="15" t="n">
-        <v>0.02577571231178655</v>
-      </c>
-      <c r="G10" s="15" t="n">
-        <v>0.0718046875906857</v>
-      </c>
-      <c r="H10" s="15" t="n">
-        <v>-0.006325794074340529</v>
-      </c>
-      <c r="I10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="J10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="K10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="L10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="M10" s="15" t="n">
         <v/>
       </c>
     </row>
@@ -1799,7 +1738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -1877,7 +1816,7 @@
     </row>
     <row r="2" ht="20" customHeight="1">
       <c r="A2" s="15" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="15" t="n">
         <v/>
@@ -1889,358 +1828,317 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.04331869138870825</v>
+        <v/>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.01904821018048075</v>
+        <v/>
       </c>
       <c r="G2" s="15" t="n">
-        <v>-0.03568454183731373</v>
+        <v/>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.15891272533273</v>
+        <v/>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.05998698023864713</v>
+        <v/>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.02812993778888584</v>
+        <v/>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.01976246302301332</v>
+        <v>-0.06829386384357228</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.1048131137174675</v>
+        <v>-0.004360581649818784</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.2963521714147215</v>
+        <v>-0.008670410764673231</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="15" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.1108375396521538</v>
+        <v>0.2006485933809228</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.02788953591484766</v>
+        <v>0.02944864452514362</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.04334533373881833</v>
+        <v>-0.1321409002608084</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.07195596670484283</v>
+        <v>-0.009732390340305042</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.05347462733012032</v>
+        <v>-0.01869687499886763</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.1831784906743321</v>
+        <v>-0.01724441106657715</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.08807385286485769</v>
+        <v>0.07811175785634439</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.2514181375592739</v>
+        <v>-0.03257061148735618</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.06648236799820872</v>
+        <v>-0.007676697507960517</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.06828204819045802</v>
+        <v>0.001340858986781157</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-0.004361993687415189</v>
+        <v>0.02572402716674871</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.008670628033343841</v>
+        <v>0.08275943839239308</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="15" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.2005879399238613</v>
+        <v>0.03685602696773604</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.02945437678863017</v>
+        <v>0.003939447073291857</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.1321565876960651</v>
+        <v>0.03391794707431672</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.009750330162947685</v>
+        <v>0.03106678623910697</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.01869687499886785</v>
+        <v>0.04540013245870433</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.01723752168006476</v>
+        <v>0.01493491512810619</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.07810503006444258</v>
+        <v>0.08946800988761594</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.03256098563187182</v>
+        <v>-0.03756389348082034</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.0076842078131798</v>
+        <v>0.001913786004469564</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.001347212024823019</v>
+        <v>0.05662169023513108</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>0.0257208551682615</v>
+        <v>0.02593672582729067</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.08275464363678875</v>
+        <v>0.007843665358200358</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.03685602696773627</v>
+        <v>0.01630304911699665</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.003950462904731333</v>
+        <v>-0.05397623397368867</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.03396733935197527</v>
+        <v>-0.07370271880208201</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.03107606692474763</v>
+        <v>-0.008214800886413576</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.0453940587509889</v>
+        <v>0.1061643828577934</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.0149512317467293</v>
+        <v>0.04376121471044225</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.08960227615053706</v>
+        <v>-0.01192631798742894</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.03752599001437007</v>
+        <v>0.07966801273828783</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>0.001902555088135971</v>
+        <v>0.01408128749632875</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.05668072080971998</v>
+        <v>0.09307593245600421</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.02596002722889956</v>
+        <v>-0.009925102762232241</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.007843533214568765</v>
+        <v>0.04278353625013254</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="15" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.01632041321633459</v>
+        <v>0.003458350668183119</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.0539715964214974</v>
+        <v>-0.0125459045620806</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.07367383788494475</v>
+        <v>-0.01713607883953761</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.00822595588923114</v>
+        <v>0.04274727375340404</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.106214131209492</v>
+        <v>0.0681717048515238</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.04374257936285342</v>
+        <v>0.003320515761360054</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.01192694873664324</v>
+        <v>-0.05524840626391225</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.07966801273828805</v>
+        <v>-0.01871974379027641</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.01408128749632898</v>
+        <v>-0.01418234706158472</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.09307593245600398</v>
+        <v>-0.03509226164804047</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.009917055092339311</v>
+        <v>-0.03534248537295481</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.04277211227113931</v>
+        <v>0.002396953818088798</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>0.003487358906415272</v>
+        <v>-0.02525543416559239</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.01261796134591475</v>
+        <v>-0.1564509320780575</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.01713054001444414</v>
+        <v>0.04860142687379776</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.04291025026510376</v>
+        <v>-0.0885648917372116</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.06813558811331144</v>
+        <v>0.00524234459443762</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.003314093194876966</v>
+        <v>-0.06048286515512802</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.05526439884123946</v>
+        <v>-0.08180403927824376</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.01871196860248281</v>
+        <v>0.004957522947072857</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>-0.01422748577010602</v>
+        <v>0.02999446792352267</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.03510403766809889</v>
+        <v>-0.07137384300548477</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.0353490874411142</v>
+        <v>0.07421228236515942</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.002408870159361642</v>
+        <v>-0.06402516995440044</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.0252499783336253</v>
+        <v>-0.06674776670944271</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.1564554684398896</v>
+        <v>0.03368284177677605</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.04863307288365593</v>
+        <v>0.01689487980002125</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.08856084400989672</v>
+        <v>-0.08557064562376704</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.005260164443232407</v>
+        <v>-0.03931752103532171</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.060488481045192</v>
+        <v>-0.07351566251065744</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-0.08176265994509713</v>
+        <v>0.01192607323275507</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>0.005035318857584903</v>
+        <v>0.0862881758434233</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>0.02997143063899466</v>
+        <v>-0.06351360574429687</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.07136347743848137</v>
+        <v>-0.02172075788802164</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.07416771882790751</v>
+        <v>-0.02619647766559052</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.06399419313201693</v>
+        <v>0.06063213892675079</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="15" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.06681293163603441</v>
+        <v>0.116304153893739</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>0.03368255349837135</v>
+        <v>0.004280811429914433</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.01693722207627513</v>
+        <v>0.07009750317718333</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.08558081849863908</v>
+        <v>0.1142609860578991</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.03932881742688477</v>
+        <v>-0.01521023119805731</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.07356214377716108</v>
+        <v>-0.08551849337212936</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.01191290009588086</v>
+        <v>0.003867797751664792</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.08631390038068476</v>
+        <v/>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.0635638250399424</v>
+        <v/>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.02169765321332173</v>
+        <v/>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.02621026948517835</v>
+        <v/>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.06052720060766759</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="15" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="15" t="n">
-        <v>0.1162743664809456</v>
-      </c>
-      <c r="C10" s="15" t="n">
-        <v>0.004280811429914211</v>
-      </c>
-      <c r="D10" s="15" t="n">
-        <v>0.07009750317718355</v>
-      </c>
-      <c r="E10" s="15" t="n">
-        <v>0.1142600179069098</v>
-      </c>
-      <c r="F10" s="15" t="n">
-        <v>-0.01520865905856217</v>
-      </c>
-      <c r="G10" s="15" t="n">
-        <v>-0.08547898231107232</v>
-      </c>
-      <c r="H10" s="15" t="n">
-        <v>0.003870636859953258</v>
-      </c>
-      <c r="I10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="J10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="K10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="L10" s="15" t="n">
-        <v/>
-      </c>
-      <c r="M10" s="15" t="n">
         <v/>
       </c>
     </row>
